--- a/src/test/java/ru/fds/tavrzcms3/testdata/loan_agreement_new.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/loan_agreement_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <r>
       <t xml:space="preserve">num_la: </t>
@@ -517,7 +517,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +600,9 @@
       <c r="C3" s="2">
         <v>37654</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3">
         <v>200</v>
       </c>
